--- a/data/trans_dic/P57_AF_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5471232512660217</v>
+        <v>0.5492628905204533</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5338436728723349</v>
+        <v>0.5354327850960778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.630118218051958</v>
+        <v>0.6286463403871074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4742368188683401</v>
+        <v>0.4767276949311136</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4784326636509965</v>
+        <v>0.4791856026649013</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5517596407033192</v>
+        <v>0.5537817096170107</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6525776253036579</v>
+        <v>0.6515755584408152</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.419477416651789</v>
+        <v>0.4180756881941293</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5333247800978478</v>
+        <v>0.534615853563966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5560772501504073</v>
+        <v>0.5607602553197807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6585683351366806</v>
+        <v>0.6564918748094319</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4563827784796598</v>
+        <v>0.4604295877818829</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6362708436584474</v>
+        <v>0.6416442425569707</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6346889142524844</v>
+        <v>0.6319559975342067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7278797844846256</v>
+        <v>0.7284486366907423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5623323651525232</v>
+        <v>0.56771800065921</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5964709739748825</v>
+        <v>0.5918854139851918</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6706011247133414</v>
+        <v>0.667202473028728</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.752566776614322</v>
+        <v>0.7531064835249103</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4987695034443814</v>
+        <v>0.4997202856608253</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6076892135889086</v>
+        <v>0.6043750599552715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6342573991234209</v>
+        <v>0.6324465625370607</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7276673349529332</v>
+        <v>0.727887680684189</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5198935313489733</v>
+        <v>0.5222314215951698</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.7004772605999912</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5685429879888165</v>
+        <v>0.5685429879888166</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4828648774218604</v>
+        <v>0.4837680655114525</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5504314085837984</v>
+        <v>0.5569886346085707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6462094739294583</v>
+        <v>0.6488272455893165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5250926854187428</v>
+        <v>0.5279143293412806</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5421988661805391</v>
+        <v>0.5458211262773944</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6082835150951093</v>
+        <v>0.6093018653252431</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6518156174337666</v>
+        <v>0.6492561893742502</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5180581409629795</v>
+        <v>0.515689067567761</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5239217151583987</v>
+        <v>0.5273071347462656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5956583917021495</v>
+        <v>0.5922872370873186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6667941496282627</v>
+        <v>0.6644686362308179</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.533190972386428</v>
+        <v>0.5399103397653547</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5891582816196791</v>
+        <v>0.591591968797637</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6566623291916754</v>
+        <v>0.6564425068444609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7440730256533664</v>
+        <v>0.7448755009172908</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6252465854910287</v>
+        <v>0.6202262671904604</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6431181057416273</v>
+        <v>0.6427274590007058</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7146706815026611</v>
+        <v>0.7160103658002512</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.751713174527069</v>
+        <v>0.7520084316003152</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6005149656803495</v>
+        <v>0.5996907232897867</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6000343118910914</v>
+        <v>0.6027223331154545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6696082252757396</v>
+        <v>0.669827295761356</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.73522758061959</v>
+        <v>0.7310662628629337</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.599706211839211</v>
+        <v>0.6029449724497414</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7635249707002091</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5759019798911305</v>
+        <v>0.5759019798911306</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6434926927888774</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6135785785117568</v>
+        <v>0.6098269219568876</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5731790281232104</v>
+        <v>0.5713711874561409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7227918589044741</v>
+        <v>0.7228171187238071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5273923040884326</v>
+        <v>0.5281739480518668</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5642057695043295</v>
+        <v>0.5659785305787781</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5885107987181529</v>
+        <v>0.5846235370945509</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7098229757739365</v>
+        <v>0.708164687612225</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5033678920083943</v>
+        <v>0.5023611786313155</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6153570594439117</v>
+        <v>0.6173279386701948</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5904129022097221</v>
+        <v>0.5934927247203265</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7337407385753413</v>
+        <v>0.7330656755766151</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5347472463319184</v>
+        <v>0.5367509700857662</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6954311994845088</v>
+        <v>0.6945486253585575</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6518106266022203</v>
+        <v>0.6552457625610842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7998317816186491</v>
+        <v>0.8009779711407701</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6239509616861759</v>
+        <v>0.623062542813834</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7099031400464021</v>
+        <v>0.7138554280228826</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7082981731198913</v>
+        <v>0.7112833194705408</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8402683867047476</v>
+        <v>0.8361453672765383</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6246237322881626</v>
+        <v>0.6243543543812168</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6836803828194242</v>
+        <v>0.6868485484668452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6581831944378292</v>
+        <v>0.6558915016367121</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7996326714426474</v>
+        <v>0.7972322628260139</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6102592941523005</v>
+        <v>0.6133443376766103</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7520025208757785</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5923451578531496</v>
+        <v>0.5923451578531497</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6519986123999392</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6085958035683607</v>
+        <v>0.6137594206788219</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6126674624717411</v>
+        <v>0.6096727690189516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.722802391931362</v>
+        <v>0.7266940015349074</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5586382193318991</v>
+        <v>0.5593562856814658</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6171257237235493</v>
+        <v>0.6171636608584653</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6701820635802787</v>
+        <v>0.6683843469028328</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7141303426375585</v>
+        <v>0.7196022113802147</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5464623058107422</v>
+        <v>0.5457908877698495</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6216845275942662</v>
+        <v>0.6210504636457397</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6447889558101328</v>
+        <v>0.6441016640394129</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7315719306089042</v>
+        <v>0.731027666050192</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5637112958423125</v>
+        <v>0.5638846837235804</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6651243294077998</v>
+        <v>0.6681807429233976</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6711403246565479</v>
+        <v>0.6727736027869692</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7758190696913259</v>
+        <v>0.7758940764882772</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.624338239166996</v>
+        <v>0.6240450671306609</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6875368818203191</v>
+        <v>0.6889597695087206</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7390016754742007</v>
+        <v>0.735679357418626</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7790885150096595</v>
+        <v>0.780591323879233</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6073820620320362</v>
+        <v>0.6068305673473344</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6658938857943064</v>
+        <v>0.6653266234376813</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6889837947077428</v>
+        <v>0.6888977486501292</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7719973199995663</v>
+        <v>0.7691532268376122</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6088166225763633</v>
+        <v>0.6087364901449706</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.79598166979156</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6528322478316491</v>
+        <v>0.6528322478316489</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5754759899050741</v>
+        <v>0.5750177597554572</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6304779131051604</v>
+        <v>0.6330977220996669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7424759175754445</v>
+        <v>0.7382415234848976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.597482659626381</v>
+        <v>0.6021914863522045</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6275865877273461</v>
+        <v>0.62672598982057</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6717031670804098</v>
+        <v>0.6679216354473135</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7792163092524527</v>
+        <v>0.7815527313404103</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6317610383258971</v>
+        <v>0.628713848264587</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.61653668573957</v>
+        <v>0.6209719346700048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6630610851015275</v>
+        <v>0.6663764497753166</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7737073857403441</v>
+        <v>0.7733227466872882</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6283455761381282</v>
+        <v>0.6264053490323958</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6773044034472426</v>
+        <v>0.6787396598672305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7115308255403872</v>
+        <v>0.7165491278251523</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8096087277901639</v>
+        <v>0.8089178568048933</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6927312765906465</v>
+        <v>0.6894014760046629</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7074256622244864</v>
+        <v>0.7048905827647486</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7408524603834864</v>
+        <v>0.7365091959417537</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8387707252924187</v>
+        <v>0.8377999238311551</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6867139751302571</v>
+        <v>0.6867711740216969</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6797396805853619</v>
+        <v>0.6846141739017075</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.716581447993781</v>
+        <v>0.7190528036603389</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8175638041805166</v>
+        <v>0.8189435646090962</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6772791122697371</v>
+        <v>0.6753949489419928</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.699867789547025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.389293078933885</v>
+        <v>0.3892930789338851</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.5861109184889982</v>
@@ -1365,7 +1365,7 @@
         <v>0.7687067769471252</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5989874609256963</v>
+        <v>0.5989874609256964</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5652330824152415</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4201000205726347</v>
+        <v>0.4206280822345044</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4584459913046656</v>
+        <v>0.4612781240238749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.644769965800853</v>
+        <v>0.6477904639385228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2885263039031582</v>
+        <v>0.2890388602981471</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5584971948487694</v>
+        <v>0.559353714818445</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6075759330200525</v>
+        <v>0.6093588793753636</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7430605851001728</v>
+        <v>0.7405794259697179</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5633135397891279</v>
+        <v>0.562432768046643</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5427039609138613</v>
+        <v>0.5394665181986018</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5872935997541107</v>
+        <v>0.5845802183299642</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7306143170487496</v>
+        <v>0.7297361218881048</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5184273873620862</v>
+        <v>0.5172664434078477</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5267503029325571</v>
+        <v>0.534631135286352</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5846410351616526</v>
+        <v>0.5815237054444011</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7532017981764031</v>
+        <v>0.7547921597405014</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4896958442145024</v>
+        <v>0.4888792135168893</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6119242894179212</v>
+        <v>0.6129188472367452</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6685272722675819</v>
+        <v>0.6665521469945777</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7946281513687538</v>
+        <v>0.7943058474243869</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.630772989677938</v>
+        <v>0.6305845240860122</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5917417178754569</v>
+        <v>0.5890957608722449</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6418700049372635</v>
+        <v>0.6410978777029601</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7788606186544553</v>
+        <v>0.7772624531896252</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5897654002091114</v>
+        <v>0.5877244164090367</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.7500564263628244</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5766375188435876</v>
+        <v>0.5766375188435875</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5910529954993649</v>
+        <v>0.5900598639121205</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.60163555163559</v>
+        <v>0.6013220695059219</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7240007235160478</v>
+        <v>0.7230688952131911</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5533907052020178</v>
+        <v>0.5514434181659541</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5960250321609943</v>
+        <v>0.5954885054859719</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6503878434167334</v>
+        <v>0.651294176936585</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7457537590162154</v>
+        <v>0.7463404055356715</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.566813547918543</v>
+        <v>0.5673743036830505</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.598075362876029</v>
+        <v>0.5977039999578113</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6322847873477051</v>
+        <v>0.6319416656815732</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7398523570758608</v>
+        <v>0.7391494462614766</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5639723809618311</v>
+        <v>0.5652572124726509</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6248074579678877</v>
+        <v>0.6241392441277595</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.636933143900354</v>
+        <v>0.6376994689853559</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7536650058590116</v>
+        <v>0.7540467720345869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5926575458904291</v>
+        <v>0.5900508322172419</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6304324652198474</v>
+        <v>0.6294808181808558</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6830755290476264</v>
+        <v>0.6843755639796483</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7752975639670869</v>
+        <v>0.7738320629485687</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.595782321408076</v>
+        <v>0.5969533398580557</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6215958467192984</v>
+        <v>0.621127710648257</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6563615725681707</v>
+        <v>0.6557621583845177</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7602135318963188</v>
+        <v>0.7607021419892452</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5882676392542221</v>
+        <v>0.5895278480783216</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>257663</v>
+        <v>258670</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>232374</v>
+        <v>233065</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>269834</v>
+        <v>269203</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>259354</v>
+        <v>260716</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>146726</v>
+        <v>146957</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>172282</v>
+        <v>172913</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>223500</v>
+        <v>223157</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>204297</v>
+        <v>203615</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>414725</v>
+        <v>415729</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>415681</v>
+        <v>419182</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>507568</v>
+        <v>505968</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>471861</v>
+        <v>476045</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>299646</v>
+        <v>302177</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>276270</v>
+        <v>275080</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>311698</v>
+        <v>311941</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>307532</v>
+        <v>310478</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>182926</v>
+        <v>181519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>209389</v>
+        <v>208328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>257745</v>
+        <v>257930</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>242915</v>
+        <v>243378</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>472552</v>
+        <v>469975</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>474123</v>
+        <v>472769</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>560824</v>
+        <v>560994</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>537526</v>
+        <v>539943</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>177180</v>
+        <v>177511</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>229154</v>
+        <v>231884</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>242865</v>
+        <v>243849</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>251693</v>
+        <v>253046</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>201625</v>
+        <v>202972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>203922</v>
+        <v>204263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>239633</v>
+        <v>238693</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>217033</v>
+        <v>216041</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>387073</v>
+        <v>389574</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>447672</v>
+        <v>445138</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>495741</v>
+        <v>494012</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>478948</v>
+        <v>484984</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>216182</v>
+        <v>217075</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>273380</v>
+        <v>273288</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>279645</v>
+        <v>279947</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>299700</v>
+        <v>297294</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>239153</v>
+        <v>239008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>239587</v>
+        <v>240036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>276360</v>
+        <v>276468</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>251577</v>
+        <v>251232</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>443305</v>
+        <v>445291</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>503249</v>
+        <v>503414</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>546620</v>
+        <v>543526</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>538696</v>
+        <v>541606</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>332280</v>
+        <v>330249</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>359740</v>
+        <v>358606</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>377235</v>
+        <v>377248</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>246969</v>
+        <v>247335</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>94111</v>
+        <v>94406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>152538</v>
+        <v>151530</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>116821</v>
+        <v>116548</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>93428</v>
+        <v>93241</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>435886</v>
+        <v>437282</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>523587</v>
+        <v>526318</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>503707</v>
+        <v>503244</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>349665</v>
+        <v>350975</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>376607</v>
+        <v>376129</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>409091</v>
+        <v>411247</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>417443</v>
+        <v>418042</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>292186</v>
+        <v>291770</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>118413</v>
+        <v>119073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>183586</v>
+        <v>184360</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>138290</v>
+        <v>137611</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115933</v>
+        <v>115883</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>484283</v>
+        <v>486527</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>583687</v>
+        <v>581654</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>548941</v>
+        <v>547294</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>399041</v>
+        <v>401059</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>753645</v>
+        <v>760039</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>704127</v>
+        <v>700685</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>823784</v>
+        <v>828220</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>628794</v>
+        <v>629602</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>440804</v>
+        <v>440831</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>511134</v>
+        <v>509763</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>587699</v>
+        <v>592202</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>466773</v>
+        <v>466200</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1213914</v>
+        <v>1212676</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1232811</v>
+        <v>1231497</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1435831</v>
+        <v>1434763</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1116011</v>
+        <v>1116354</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>823646</v>
+        <v>827431</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>771329</v>
+        <v>773206</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>884208</v>
+        <v>884293</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>702745</v>
+        <v>702415</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>491097</v>
+        <v>492114</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>563622</v>
+        <v>561088</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>641156</v>
+        <v>642393</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>518809</v>
+        <v>518338</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1300238</v>
+        <v>1299130</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1317309</v>
+        <v>1317145</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1515173</v>
+        <v>1509591</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1205308</v>
+        <v>1205150</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>201736</v>
+        <v>201575</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>318705</v>
+        <v>320030</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>459238</v>
+        <v>456619</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>334548</v>
+        <v>337184</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>356317</v>
+        <v>355828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>506697</v>
+        <v>503844</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>573842</v>
+        <v>575563</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>517216</v>
+        <v>514721</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>566173</v>
+        <v>570246</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>835353</v>
+        <v>839530</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1048341</v>
+        <v>1047820</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>866249</v>
+        <v>863574</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>237432</v>
+        <v>237936</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>359677</v>
+        <v>362214</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>500761</v>
+        <v>500333</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>387880</v>
+        <v>386016</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>401646</v>
+        <v>400207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>558859</v>
+        <v>555583</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>617700</v>
+        <v>616985</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>562205</v>
+        <v>562252</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>624213</v>
+        <v>628689</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>902780</v>
+        <v>905894</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1107765</v>
+        <v>1109634</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>933709</v>
+        <v>931112</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>124922</v>
+        <v>125079</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>122351</v>
+        <v>123107</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>184529</v>
+        <v>185394</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>67666</v>
+        <v>67786</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>697429</v>
+        <v>698499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>668397</v>
+        <v>670358</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>801655</v>
+        <v>798979</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>471421</v>
+        <v>470684</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>839087</v>
+        <v>834082</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>802822</v>
+        <v>799113</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>997325</v>
+        <v>996126</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>555439</v>
+        <v>554196</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>156636</v>
+        <v>158980</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>156030</v>
+        <v>155198</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>215562</v>
+        <v>216017</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>114844</v>
+        <v>114653</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>764147</v>
+        <v>765389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>735450</v>
+        <v>733277</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>857289</v>
+        <v>856942</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>527876</v>
+        <v>527718</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>914905</v>
+        <v>910815</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>877427</v>
+        <v>876372</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1063184</v>
+        <v>1061002</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>631871</v>
+        <v>629684</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1930186</v>
+        <v>1926943</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2046093</v>
+        <v>2045027</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2440169</v>
+        <v>2437029</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1889572</v>
+        <v>1882923</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2012269</v>
+        <v>2010458</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2291839</v>
+        <v>2295033</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2619799</v>
+        <v>2621860</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2041267</v>
+        <v>2043286</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3972310</v>
+        <v>3969844</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4378375</v>
+        <v>4375999</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5092663</v>
+        <v>5087825</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3956738</v>
+        <v>3965752</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2040417</v>
+        <v>2038235</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2166136</v>
+        <v>2168742</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2540150</v>
+        <v>2541436</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2023650</v>
+        <v>2014749</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2128434</v>
+        <v>2125221</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2407024</v>
+        <v>2411605</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2723585</v>
+        <v>2718437</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2145592</v>
+        <v>2149809</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4128529</v>
+        <v>4125420</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4545099</v>
+        <v>4540948</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5232817</v>
+        <v>5236180</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>4127190</v>
+        <v>4136031</v>
       </c>
     </row>
     <row r="32">
